--- a/data/income_statement/2digits/size/61_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/61_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>61-Telecommunications</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>61-Telecommunications</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,521 +841,591 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>729652.54015</v>
+        <v>752062.51266</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>872750.0734700001</v>
+        <v>893444.96597</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1013327.55042</v>
+        <v>1022968.31611</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1068015.48221</v>
+        <v>1092560.10539</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1300937.82147</v>
+        <v>1331886.75401</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1348982.02675</v>
+        <v>1388072.32079</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1801992.8625</v>
+        <v>1853426.45919</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1762508.39456</v>
+        <v>1761192.26289</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2013605.22036</v>
+        <v>2008938.29615</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2463944.79267</v>
+        <v>2550919.69966</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2500841.27859</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2600761.28939</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2717504.082</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>684932.5843100001</v>
+        <v>697403.6968200001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>810380.47439</v>
+        <v>821222.94464</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>948961.38625</v>
+        <v>953555.0186000001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>994419.51513</v>
+        <v>1018561.93756</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1210382.50308</v>
+        <v>1233067.04302</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1222744.01585</v>
+        <v>1251918.118</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1514012.90093</v>
+        <v>1556445.63232</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1589245.57598</v>
+        <v>1584732.58212</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1805166.57085</v>
+        <v>1804156.38882</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2253705.81043</v>
+        <v>2332286.07268</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2189486.66125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2274105.56972</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2431840.19</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>23887.56357</v>
+        <v>33325.40587</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>31198.31779</v>
+        <v>41830.90712999999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>42043.23227</v>
+        <v>48597.45130000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>48974.65386</v>
+        <v>50436.54502000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>50941.95008</v>
+        <v>58191.78106</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>99345.35215999999</v>
+        <v>102345.61756</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>242957.6131</v>
+        <v>251192.07076</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>123123.99219</v>
+        <v>129351.44853</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>166644.55684</v>
+        <v>165498.62006</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>167690.97909</v>
+        <v>173582.47886</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>255608.14008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>274579.96901</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>209052.417</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>20832.39227</v>
+        <v>21333.40997</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>31171.28129</v>
+        <v>30391.1142</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>22322.9319</v>
+        <v>20815.84621</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>24621.31322</v>
+        <v>23561.62281</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>39613.36831000001</v>
+        <v>40627.92993</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>26892.65874</v>
+        <v>33808.58523</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>45022.34847</v>
+        <v>45788.75611</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>50138.82639</v>
+        <v>47108.23224</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>41794.09267</v>
+        <v>39283.28726999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>42548.00315</v>
+        <v>45051.14812000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>55746.47726000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>52075.75066000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>76611.47500000001</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>6656.65812</v>
+        <v>5664.45835</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>4887.16251</v>
+        <v>4822.265179999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>5389.30909</v>
+        <v>5306.63209</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>9886.705300000001</v>
+        <v>9531.347780000002</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>14873.0003</v>
+        <v>18075.96193</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>16522.55339</v>
+        <v>16768.71541</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>18369.25325</v>
+        <v>18615.05999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>18767.96343</v>
+        <v>20464.07896</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>31206.04059</v>
+        <v>30915.76558</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>36640.25364</v>
+        <v>37530.94461</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>56402.38953</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>56686.57056</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>48948.228</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5240.141269999999</v>
+        <v>4249.7868</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>4523.1949</v>
+        <v>4436.238189999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4381.20496</v>
+        <v>4202.72855</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>8129.775130000001</v>
+        <v>7778.72559</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>11404.73849</v>
+        <v>14696.92829</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>10880.15258</v>
+        <v>11096.57997</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>11915.84344</v>
+        <v>11860.67476</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>15575.51616</v>
+        <v>15739.59686</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>19247.21417</v>
+        <v>19033.50456</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>27514.26324</v>
+        <v>28624.78729</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>35104.33516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>36001.19501</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>44150.088</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1338.9952</v>
+        <v>1337.1499</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>151.30646</v>
+        <v>173.25106</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>447.04083</v>
+        <v>448.01324</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>1478.65238</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2358.79348</v>
+        <v>2269.64355</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2007.19881</v>
+        <v>2239.62897</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3202.93108</v>
+        <v>3503.9065</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1998.55431</v>
+        <v>3508.57362</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>7416.82801</v>
+        <v>7378.893139999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>5999.16772</v>
+        <v>6005.81301</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>19229.32573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>19265.54856</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4495.229</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>77.52164999999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>212.66115</v>
+        <v>212.77593</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>561.0633</v>
+        <v>655.8903</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>278.27779</v>
+        <v>273.96981</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1109.46833</v>
+        <v>1109.39009</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>3635.202</v>
+        <v>3432.50647</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>3250.47873</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1193.89296</v>
+        <v>1215.90848</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>4541.99841</v>
+        <v>4503.36788</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3126.82268</v>
+        <v>2900.34431</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2068.72864</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1419.82699</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>302.911</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>722995.88203</v>
+        <v>746398.05431</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>867862.9109599999</v>
+        <v>888622.7007899999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1007938.24133</v>
+        <v>1017661.68402</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1058128.77691</v>
+        <v>1083028.75761</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1286064.82117</v>
+        <v>1313810.79208</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1332459.47336</v>
+        <v>1371303.60538</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1783623.60925</v>
+        <v>1834811.3992</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1743740.43113</v>
+        <v>1740728.18393</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1982399.17977</v>
+        <v>1978022.53057</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2427304.53903</v>
+        <v>2513388.75505</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2444438.88906</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2544074.71883</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2668555.854</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>585971.4667</v>
+        <v>604394.8101300001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>703342.4495799999</v>
+        <v>717802.8925</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>855816.89879</v>
+        <v>860110.49045</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>898004.8800499999</v>
+        <v>918399.05631</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1078222.65054</v>
+        <v>1104097.24815</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1106249.38684</v>
+        <v>1123066.43297</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1505139.3627</v>
+        <v>1551460.74452</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1422213.43725</v>
+        <v>1421267.82423</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1622171.58589</v>
+        <v>1616248.37346</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1894177.7593</v>
+        <v>1957210.10229</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1974014.16933</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2049323.76327</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2160488.491</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>12828.37822</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>10581.13315</v>
+        <v>12788.09418</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>11019.39987</v>
+        <v>10640.92465</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>16375.21706</v>
+        <v>16040.82871</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>17390.32204</v>
+        <v>16522.31822</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>19704.63392</v>
+        <v>18986.98016</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>17861.71907</v>
+        <v>15506.49161</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>28424.20008</v>
+        <v>26553.28338</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>17464.6142</v>
+        <v>17130.53304</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>81297.11383000002</v>
+        <v>79459.08871</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>73056.84128000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>68078.94936999999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>33000.392</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>373255.88301</v>
+        <v>380766.37744</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>494592.83068</v>
+        <v>498206.73453</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>625561.7347499999</v>
+        <v>624549.29545</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>670760.48369</v>
+        <v>675260.55732</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>783657.84025</v>
+        <v>796098.49046</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>706148.2312899999</v>
+        <v>711921.50145</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>967464.71709</v>
+        <v>988139.2026300001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>914306.9885</v>
+        <v>902744.5846700001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1116152.24544</v>
+        <v>1095226.77599</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1211143.57061</v>
+        <v>1215328.25874</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1146749.60018</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1173513.17496</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1239376.693</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>199190.80065</v>
+        <v>210103.64965</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>197662.0818</v>
+        <v>206301.65984</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>218043.09261</v>
+        <v>224203.05092</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>210644.28084</v>
+        <v>226872.77182</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>275818.74225</v>
+        <v>290205.43923</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>379575.16146</v>
+        <v>391328.43977</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>518127.0700299999</v>
+        <v>546508.9893400001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>477360.0725499999</v>
+        <v>490851.0773</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>486046.0432200001</v>
+        <v>501827.4127100001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>599599.7595999999</v>
+        <v>660862.1117100001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>749211.32624</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>803106.6066300001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>878140.383</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>696.40482</v>
@@ -1463,358 +1434,403 @@
         <v>506.40395</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1192.67156</v>
+        <v>717.21943</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>224.89846</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1355.746</v>
+        <v>1271.00024</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>821.3601699999999</v>
+        <v>829.5115900000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1685.85651</v>
+        <v>1306.06094</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2122.17612</v>
+        <v>1118.87888</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2508.68303</v>
+        <v>2063.65172</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2137.31526</v>
+        <v>1560.64313</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4996.401630000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4625.032310000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>9971.022999999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>137024.41533</v>
+        <v>142003.24418</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>164520.46138</v>
+        <v>170819.80829</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>152121.34254</v>
+        <v>157551.19357</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>160123.89686</v>
+        <v>164629.7013</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>207842.17063</v>
+        <v>209713.54393</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>226210.08652</v>
+        <v>248237.17241</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>278484.24655</v>
+        <v>283350.6546799999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>321526.99388</v>
+        <v>319460.3597</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>360227.59388</v>
+        <v>361774.15711</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>533126.7797300001</v>
+        <v>556178.65276</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>470424.71973</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>494750.95556</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>508067.363</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>111981.99196</v>
+        <v>120513.57499</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>144101.46297</v>
+        <v>150367.54521</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>142807.7137</v>
+        <v>144684.1828</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>142017.19061</v>
+        <v>147342.3321</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>196127.11339</v>
+        <v>194899.27643</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>214262.26808</v>
+        <v>217798.43709</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>257002.79717</v>
+        <v>267401.09741</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>284662.55007</v>
+        <v>288620.50446</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>322805.40161</v>
+        <v>320581.28607</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>467683.63388</v>
+        <v>473472.9416</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>423391.28112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>419865.81336</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>388833.624</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1087.44079</v>
+        <v>1172.58231</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1596.63364</v>
+        <v>1568.0049</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>3049.43008</v>
+        <v>3045.1444</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1247.81023</v>
+        <v>1176.46126</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2189.34928</v>
+        <v>2063.02898</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1837.61405</v>
+        <v>1684.41544</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3074.78275</v>
+        <v>2286.51498</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4660.57805</v>
+        <v>4011.27578</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1628.43515</v>
+        <v>2632.50125</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>4703.809859999999</v>
+        <v>3094.6383</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3932.65475</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2089.27666</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2837.796</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>28414.03593</v>
+        <v>28678.088</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>43288.45526</v>
+        <v>43301.34487000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>43510.55719</v>
+        <v>42485.06154</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>36304.35962</v>
+        <v>39273.88745</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>58367.9353</v>
+        <v>59511.02297999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>55281.04497</v>
+        <v>64434.08646999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>61487.12364</v>
+        <v>69968.19179</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>64948.7916</v>
+        <v>75496.19108</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>86314.61497</v>
+        <v>96395.54781</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>80328.87053</v>
+        <v>84805.36798000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>100674.27641</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>104999.5945</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>97842.988</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>82480.51523999999</v>
+        <v>90662.90467999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>99216.37406999999</v>
+        <v>105498.19544</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>96247.72643</v>
+        <v>99153.97686000001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>104465.02076</v>
+        <v>106891.98339</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>135569.82881</v>
+        <v>133325.22447</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>157143.60906</v>
+        <v>151679.93518</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>192440.89078</v>
+        <v>195146.39064</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>215053.18042</v>
+        <v>209113.0376</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>234862.35149</v>
+        <v>221553.23701</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>382650.95349</v>
+        <v>385572.93532</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>318784.34996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>312776.9422</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>288152.84</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>25042.42337</v>
+        <v>21489.66919</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>20418.99841</v>
+        <v>20452.26308</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>9313.628839999999</v>
+        <v>12867.01077</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>18106.70625</v>
+        <v>17287.3692</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>11715.05724</v>
+        <v>14814.2675</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>11947.81844</v>
+        <v>30438.73532</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>21481.44938</v>
+        <v>15949.55727</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>36864.44381</v>
+        <v>30839.85524</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>37422.19227000001</v>
+        <v>41192.87104</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>65443.14585000001</v>
+        <v>82705.71115999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>47033.43861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>74885.1422</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>119233.739</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>10571.0391</v>
+        <v>12013.99201</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>8581.168609999999</v>
+        <v>19460.13813</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>11586.19218</v>
+        <v>66694.05067</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>10135.51034</v>
+        <v>17038.34079</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>22799.97903</v>
+        <v>30025.99733</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>21884.74655</v>
+        <v>31885.05456</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>36731.21563000001</v>
+        <v>249022.38614</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>34964.87411</v>
+        <v>46467.07529000001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>34817.93039</v>
+        <v>52128.0961</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>144279.87142</v>
+        <v>219815.40625</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>87884.32412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>95671.31387</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>128327.446</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2338.60237</v>
+        <v>2337.46559</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>3.39263</v>
+        <v>204.51463</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>126.03631</v>
+        <v>0</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>134.29584</v>
+        <v>1284.01103</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>451.26214</v>
+        <v>209.57</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1844.65696</v>
+        <v>2858.33456</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2941.44963</v>
+        <v>1325.41964</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1851.38001</v>
+        <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1695.92663</v>
+        <v>9.04767</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2113.60748</v>
+        <v>192.98604</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>5190.44977</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>3309.0312</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>4198.681</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>1986.43131</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0.08036</v>
+        <v>53987.38111</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>0</v>
@@ -1826,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>194120.42833</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1840,209 +1856,239 @@
       <c r="M27" s="48" t="n">
         <v>3.63397</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1419.48219</v>
+        <v>1534.71888</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1265.49228</v>
+        <v>970.22345</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1683.3806</v>
+        <v>1551.11119</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2475.94398</v>
+        <v>2747.88839</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>3122.07624</v>
+        <v>2795.74649</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2126.01525</v>
+        <v>3065.91028</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>4103.94016</v>
+        <v>7454.31628</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4454.61777</v>
+        <v>3221.14283</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4099.449720000001</v>
+        <v>5005.19161</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>10657.94817</v>
+        <v>10945.19101</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>10733.33122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>13832.56147</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>8040.884</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>797.9172</v>
+        <v>797.74146</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>155.71002</v>
+        <v>155.49816</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>474.57493</v>
+        <v>213.81405</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>301.17047</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>88.27270000000001</v>
+        <v>88.89350999999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>453.10659</v>
+        <v>243.46245</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>298.17977</v>
+        <v>296.29265</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>181.22457</v>
+        <v>142.41274</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>327.25261</v>
+        <v>327.09787</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>731.48894</v>
+        <v>485.2389</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1191.03698</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>963.9884</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1572.355</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>45.08539</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>109.90959</v>
+        <v>2685.22094</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>232.97077</v>
+        <v>198.76077</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>185.60206</v>
+        <v>172.49533</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>74.36439999999999</v>
+        <v>71.35433999999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>957.21525</v>
+        <v>979.7414500000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1512.6253</v>
+        <v>1506.04045</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>741.25564</v>
+        <v>1143.67717</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>608.83888</v>
+        <v>564.62617</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>815.05187</v>
+        <v>832.6449600000001</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>1741.73063</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1813.616</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>445.90532</v>
+        <v>552.16761</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>228.40166</v>
+        <v>216.34359</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>82.03425999999999</v>
+        <v>86.68277</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>158.66</v>
+        <v>227.69296</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>372.08915</v>
+        <v>315.52378</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>161.67823</v>
+        <v>144.41659</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>128.69823</v>
+        <v>180.25417</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>144.13922</v>
+        <v>307.7498</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>193.67406</v>
+        <v>828.79899</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>772.20304</v>
+        <v>472.90598</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>607.6654299999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>452.4705500000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>4624.893</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>4849.51769</v>
+        <v>6007.241400000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>5470.525140000001</v>
+        <v>10081.75513</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>6158.51322</v>
+        <v>7587.756129999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3132.32145</v>
+        <v>4894.36335</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>12622.66627</v>
+        <v>13102.17911</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>13889.23143</v>
+        <v>17318.58158</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>24227.2259</v>
+        <v>32883.41248</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>22617.82576</v>
+        <v>30909.36356</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>21983.04676</v>
+        <v>31315.67578</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>117475.78452</v>
+        <v>194877.09108</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>53085.70855</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>61070.87695</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>88174.75599999999</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>30.79566</v>
+        <v>6.68268</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>0</v>
@@ -2051,19 +2097,19 @@
         <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>0</v>
+        <v>0.493</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>17.57487</v>
+        <v>17.72487</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>0</v>
+        <v>3.649</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1.08102</v>
+        <v>5.49002</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>0.00942</v>
@@ -2074,20 +2120,25 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>0.33505</v>
+        <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>1.384</v>
+        <v>36.70307</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>12.38995</v>
+        <v>4.525780000000001</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>643.39823</v>
+        <v>732.889</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1346.35329</v>
+        <v>3123.44785</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2816.21178</v>
+        <v>3064.01887</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3747.51654</v>
+        <v>7410.226259999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6051.67326</v>
+        <v>13425.00523</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2452.84284</v>
+        <v>7270.95865</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3519.09664</v>
+        <v>11255.81214</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4973.35012</v>
+        <v>10737.23917</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>5888.52163</v>
+        <v>14056.43791</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>11713.7874</v>
+        <v>12009.34828</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>15330.76757</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>14297.0207</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>19902.261</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>11994.24829</v>
+        <v>13375.74376</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>6605.39359</v>
+        <v>14431.07862</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>10770.05794</v>
+        <v>11692.31815</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6977.676300000001</v>
+        <v>9112.21091</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>24284.54155</v>
+        <v>24447.50824</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>16662.57868</v>
+        <v>25070.87222</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>27631.28781</v>
+        <v>41103.78793000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>25115.8838</v>
+        <v>40208.15682</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>28398.24749</v>
+        <v>48962.3097</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>125282.90502</v>
+        <v>208843.91465</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>74871.63352000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>75137.17262</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>105379.756</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>848.07417</v>
+        <v>847.0225600000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>492.84181</v>
+        <v>492.8418100000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>597.43154</v>
+        <v>596.96933</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>218.94522</v>
+        <v>641.37949</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>458.88819</v>
+        <v>478.48083</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1083.35527</v>
+        <v>1045.4794</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2081.38912</v>
+        <v>1988.43407</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2263.98461</v>
+        <v>2247.93405</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2497.33329</v>
+        <v>2065.24827</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>6397.64773</v>
+        <v>6278.12289</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>7913.434020000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7686.795120000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>10039.062</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>958.1841999999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>456.7968499999999</v>
+        <v>3488.70295</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>180.07293</v>
+        <v>180.29545</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>443.91703</v>
+        <v>267.11643</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>6595.21051</v>
+        <v>1983.28893</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>472.04876</v>
+        <v>547.8759699999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>2407.16094</v>
+        <v>2344.679</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1789.14026</v>
+        <v>1802.41057</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1302.41593</v>
+        <v>1327.47725</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1334.02632</v>
+        <v>1661.83143</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>5748.79641</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>5704.45369</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>6012.686</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>39.0645</v>
@@ -2288,19 +2364,19 @@
         <v>28.34555</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>356.51384</v>
+        <v>139.07884</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>148.00811</v>
+        <v>35.70747</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>251.86116</v>
+        <v>46.76116</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>12.45751</v>
+        <v>321.79986</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>999.527</v>
+        <v>304.89958</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>178.20754</v>
@@ -2308,74 +2384,84 @@
       <c r="M39" s="48" t="n">
         <v>82.69465</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1363.729</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>9551.68332</v>
+        <v>10938.21542</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>5429.43676</v>
+        <v>10113.60942</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>7848.37443</v>
+        <v>9045.684940000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2403.83354</v>
+        <v>3513.19768</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>12988.01381</v>
+        <v>15743.35837</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>12162.65044</v>
+        <v>18325.10298</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>20909.29222</v>
+        <v>29326.81798</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>18229.82867</v>
+        <v>28658.24291</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>19528.33371</v>
+        <v>36437.74642</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>110975.8727</v>
+        <v>194810.2543</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>59399.63804</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>60041.24161</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>82091.08</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0</v>
+        <v>1.022</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>0</v>
+        <v>4.739</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0</v>
+        <v>3.248</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>47.38635</v>
+        <v>48.19735</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1.08102</v>
+        <v>5.49002</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>185.71484</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2399,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>16.22583</v>
+        <v>16.43818</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
@@ -2411,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0.17607</v>
+        <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,362 +2516,412 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>597.2420999999999</v>
+        <v>593.25708</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>193.75896</v>
+        <v>302.34323</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1915.42183</v>
+        <v>1640.39887</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3882.63496</v>
+        <v>4657.43276</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3885.91509</v>
+        <v>6103.15116</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2796.5161</v>
+        <v>5113.4584</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1934.19797</v>
+        <v>7348.898369999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2819.21566</v>
+        <v>7172.279410000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3884.92258</v>
+        <v>8641.22334</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6397.150729999999</v>
+        <v>5915.498489999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1727.0704</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1621.98755</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>5873.199</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>7714.480300000001</v>
+        <v>7599.78793</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>8072.195070000001</v>
+        <v>8608.692260000002</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>8828.84836</v>
+        <v>7715.423710000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>8467.322779999999</v>
+        <v>10460.92479</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>9199.498589999999</v>
+        <v>9459.67952</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>7997.14641</v>
+        <v>10353.14149</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>15435.62761</v>
+        <v>18197.77498</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>13448.48338</v>
+        <v>16460.06345</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>16876.05502</v>
+        <v>17725.28883</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>33029.7823</v>
+        <v>33254.48177999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>32553.76315999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>38144.71787000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>32953.78</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>7701.07485</v>
+        <v>7438.39072</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>8057.86125</v>
+        <v>8584.406199999999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>8494.70666</v>
+        <v>7378.205380000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>8102.7029</v>
+        <v>10096.30491</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>8940.705780000002</v>
+        <v>9206.64696</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>7838.43103</v>
+        <v>10065.08015</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>15383.57532</v>
+        <v>18185.81607</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>13210.3216</v>
+        <v>16262.6078</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>16457.27412</v>
+        <v>17328.00166</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>32575.31173</v>
+        <v>32800.01121</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>31213.63823</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>37113.38221</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>32300.285</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>13.40545</v>
+        <v>161.39721</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>14.33382</v>
+        <v>24.28606</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>334.1417000000001</v>
+        <v>337.2183300000001</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>364.61988</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>258.79281</v>
+        <v>253.03256</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>158.71538</v>
+        <v>288.06134</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>52.05229</v>
+        <v>11.95891</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>238.16178</v>
+        <v>197.45565</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>418.7809</v>
+        <v>397.28717</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>454.47057</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1340.12493</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1031.33566</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>653.495</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>15904.73388</v>
+        <v>12528.12951</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>14322.57836</v>
+        <v>16872.63033</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1300.91472</v>
+        <v>60153.31958</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>12797.21751</v>
+        <v>14752.57429</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1030.99613</v>
+        <v>10933.07707</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>9172.839900000001</v>
+        <v>26899.77617</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>15145.74959</v>
+        <v>205670.3805</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>33264.95074</v>
+        <v>20638.71026</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>26965.82015</v>
+        <v>26633.36861</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>51410.32995</v>
+        <v>60422.72098</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>27492.36605</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>57274.56557999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>109227.649</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1769.52226</v>
+        <v>2159.70759</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3638.33714</v>
+        <v>6509.61125</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4024.4444</v>
+        <v>4435.61154</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3676.111809999999</v>
+        <v>4296.38598</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>8031.582060000001</v>
+        <v>13395.64715</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>5937.456810000001</v>
+        <v>6740.538320000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>7956.57849</v>
+        <v>10452.40882</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>9620.482550000001</v>
+        <v>19843.35875</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>10767.29696</v>
+        <v>13827.58111</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>17431.64095</v>
+        <v>13803.7806</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>16261.22414</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>17687.58537</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>39656.44</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>58.83347</v>
+        <v>66.63270999999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>83.52462999999999</v>
+        <v>1235.20055</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>22.75719</v>
+        <v>32.95962</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>16.16063</v>
+        <v>33.48999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>29.88544</v>
+        <v>38.59504</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>134.81845</v>
+        <v>876.3059700000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>294.03918</v>
+        <v>181.63797</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2798.09798</v>
+        <v>2794.56305</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>806.4918699999998</v>
+        <v>309.9308699999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>81.06439999999999</v>
+        <v>71.96752000000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>109.33803</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>94.60509999999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1710.68879</v>
+        <v>2093.07488</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3554.81251</v>
+        <v>5274.4107</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4001.68721</v>
+        <v>4402.65192</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3659.95118</v>
+        <v>4262.89599</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8001.69662</v>
+        <v>13357.05211</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>5802.63836</v>
+        <v>5864.23235</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>7662.53931</v>
+        <v>10270.77085</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>6822.38457</v>
+        <v>17048.7957</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>9960.80509</v>
+        <v>13517.65024</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>17350.57655</v>
+        <v>13731.81308</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>16151.88611</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>17592.98027</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>39647.71</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>3378.17479</v>
+        <v>3543.10962</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>12977.32094</v>
+        <v>3965.70591</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>26967.59667</v>
+        <v>25338.50386</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>4144.58751</v>
+        <v>3978.8637</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>7661.44251</v>
+        <v>6821.157720000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>13250.26129</v>
+        <v>12325.93537</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>7700.16287</v>
+        <v>7799.138440000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>32590.86981</v>
+        <v>34847.53597</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>17868.9623</v>
+        <v>32861.49591</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>29147.9431</v>
+        <v>26238.29022</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>29421.34417</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>16411.43926</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>15375.441</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2795,13 +2936,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>42.60089</v>
+        <v>37.40419</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>6.63778</v>
+        <v>6.637770000000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>77.38744</v>
+        <v>0.02803</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>0</v>
@@ -2813,205 +2954,233 @@
         <v>12.01856</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1171.23319</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>922.476</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>237.20097</v>
+        <v>234.12791</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>169.21591</v>
+        <v>282.20391</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>306.95299</v>
+        <v>306.9529900000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>99.21187</v>
+        <v>156.76873</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>356.90092</v>
+        <v>364.56523</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>71.10987</v>
+        <v>33.77023</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1570.01296</v>
+        <v>743.4213899999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>954.0269000000001</v>
+        <v>988.20614</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>627.8299499999999</v>
+        <v>1096.59438</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>143.32711</v>
+        <v>371.85229</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>532.00661</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1431.01589</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1023.864</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3140.97382</v>
+        <v>3308.98171</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>12806.5052</v>
+        <v>3681.902169999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>26660.64368</v>
+        <v>25031.55087</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4045.37564</v>
+        <v>3822.09497</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7261.940699999999</v>
+        <v>6419.1883</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>13172.51364</v>
+        <v>12285.52737</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6052.76247</v>
+        <v>7055.68902</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>31636.84291</v>
+        <v>33859.32983</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>17234.21769</v>
+        <v>31757.98687</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>28992.59743</v>
+        <v>25854.41937</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>27718.10437</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>14980.42337</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>13429.101</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>14296.08135</v>
+        <v>11144.72748</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>4983.59456</v>
+        <v>19416.53567</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-21642.23755</v>
+        <v>39250.42726</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>12328.74181</v>
+        <v>15070.09657</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1401.13568</v>
+        <v>17507.5665</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1860.03542</v>
+        <v>21314.37912</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>15402.16521</v>
+        <v>208323.65088</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>10294.56348</v>
+        <v>5634.533040000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>19864.15481</v>
+        <v>7599.45381</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>39694.0278</v>
+        <v>47988.21136</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>14332.24602</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>58550.71169</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>133508.648</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>5528.88804</v>
+        <v>5670.28564</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>5943.43019</v>
+        <v>6161.85936</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>3720.34675</v>
+        <v>3901.62397</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4500.0955</v>
+        <v>4512.05065</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>6729.78062</v>
+        <v>6684.310140000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6383.77678</v>
+        <v>8473.069</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>8022.59366</v>
+        <v>7812.89179</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>9163.39818</v>
+        <v>9182.62491</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>10240.47832</v>
+        <v>9891.047399999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>16109.04189</v>
+        <v>18601.96048</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>18226.0522</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>20663.69508</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>25688.146</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>8767.193310000001</v>
+        <v>5474.44184</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-959.8356299999989</v>
+        <v>13254.67631</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-25362.5843</v>
+        <v>35348.80328999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>7828.64631</v>
+        <v>10558.04592</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-5328.644939999999</v>
+        <v>10823.25636</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-4523.741359999999</v>
+        <v>12841.31012</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>7379.57155</v>
+        <v>200510.75909</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1131.1653</v>
+        <v>-3548.091869999997</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>9623.676489999998</v>
+        <v>-2291.593589999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>23584.98591</v>
+        <v>29386.25088</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-3893.80618</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>37887.01661</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>107820.502</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>402</v>
+        <v>322</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>430</v>
+        <v>343</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>488</v>
+        <v>385</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>616</v>
+        <v>383</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>671</v>
+        <v>425</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>280</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>